--- a/input/images/DAK_high-level functional and non-functional requirements_template_v2.1.xlsx
+++ b/input/images/DAK_high-level functional and non-functional requirements_template_v2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/InternalComputableGuidelinesWorkingGroup/Shared Documents/General/11. SOP/L2 SOP (work in progress)/L2 templates/GitHub templates (external)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="8_{5ACD8450-0AE2-4BA2-A77E-57273CE32C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7612BFC0-F683-4728-94D4-EB099035F31A}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{5ACD8450-0AE2-4BA2-A77E-57273CE32C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD9B8F63-E317-4A9D-8977-483E42FD2163}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D99AAAA5-616A-46C3-AA21-7263727BF10F}"/>
   </bookViews>
@@ -113,30 +113,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{D225E44F-61E5-47B3-B0FC-8B04B2B24739}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note for the author:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Please edit in the row above the text highlighted in red.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1305,9 +1281,6 @@
     <t>TB.G7</t>
   </si>
   <si>
-    <t>Template Release Date: 07 April, 2025</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1334,15 +1307,13 @@
     <t>Template Version: Functional and non-functional requirements_Template V2.1</t>
   </si>
   <si>
+    <t>Template Release Date: 14 April, 2025</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Organization] [year]</t>
+      <t xml:space="preserve">© World Health Organization 2025
+Some rights reserved. 
+</t>
     </r>
     <r>
       <rPr>
@@ -1352,9 +1323,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Some rights reserved. 
-This work is available under the Creative Commons Attribution 4.0 licence (CC BY 4.0 https://creativecommons.org/licenses/by/4.0)
+      <t xml:space="preserve">This work is available under the Creative Commons Attribution 4.0 licence (CC BY 4.0 https://creativecommons.org/licenses/by/4.0)
 Under the terms of this licence, you may copy, redistribute and adapt the work, including for commercial purposes, provided the attribution notice below is included in your work. In any use of this work, there should be no suggestion that WHO endorses any specific organization, products or services. The use of the WHO logo is not permitted. 
 Attribution notice to include in your product:
 This Digital Adaptation Kit (DAK) was developed based on the World Health Organization (WHO) SMART Guidelines methodology, specifically the WHO Standard Operating Procedure (SOP) for developing business requirements documentation in the format of WHO SMART guidelines digital adaptation kits (DAK), available here [URL: https://smart.who.int/ig-starter-kit/index.htm]. WHO is not responsible for the content included in this DAK. 
@@ -1389,7 +1358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,13 +1463,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1849,7 +1811,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1911,7 +1873,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1923,19 +1885,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1953,8 +1915,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1983,34 +1957,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2334,8 +2296,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2349,22 +2311,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="29" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8"/>
@@ -2375,25 +2337,25 @@
     </row>
     <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
@@ -2401,10 +2363,10 @@
       <c r="C6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:5" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
@@ -2412,10 +2374,10 @@
       <c r="C7" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
@@ -2423,10 +2385,10 @@
       <c r="C8" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
@@ -2434,10 +2396,10 @@
       <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
@@ -2445,10 +2407,10 @@
       <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
@@ -2456,21 +2418,21 @@
       <c r="C11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5" ht="48.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" ht="65.150000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
@@ -2478,10 +2440,10 @@
       <c r="C13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
@@ -2489,10 +2451,10 @@
       <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
@@ -2500,10 +2462,10 @@
       <c r="C15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="40"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -2513,26 +2475,27 @@
     </row>
     <row r="17" spans="1:5" ht="206" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+    </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -2549,8 +2512,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14588,11 +14549,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
@@ -15383,14 +15344,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15649,29 +15608,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="db15119c-9bb3-4b2d-aba7-a20f2bdcd107" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F509E6-2A43-467D-9C8B-DFDA1B706516}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D04AF83-9887-434B-B83F-8F76777F869C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
-    <ds:schemaRef ds:uri="db15119c-9bb3-4b2d-aba7-a20f2bdcd107"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15696,9 +15646,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D04AF83-9887-434B-B83F-8F76777F869C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F509E6-2A43-467D-9C8B-DFDA1B706516}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="51983ca6-de84-41fa-9a65-1d08ee1009bc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="73389989-ac93-4f39-a9f3-2949bbf25fcc"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
+    <ds:schemaRef ds:uri="db15119c-9bb3-4b2d-aba7-a20f2bdcd107"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/input/images/DAK_high-level functional and non-functional requirements_template_v2.1.xlsx
+++ b/input/images/DAK_high-level functional and non-functional requirements_template_v2.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/InternalComputableGuidelinesWorkingGroup/Shared Documents/General/11. SOP/L2 SOP (work in progress)/L2 templates/GitHub templates (external)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{5ACD8450-0AE2-4BA2-A77E-57273CE32C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD9B8F63-E317-4A9D-8977-483E42FD2163}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{5ACD8450-0AE2-4BA2-A77E-57273CE32C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A4A93E-10A7-40EE-960F-C028CD7E93D7}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D99AAAA5-616A-46C3-AA21-7263727BF10F}"/>
   </bookViews>
@@ -1307,9 +1307,6 @@
     <t>Template Version: Functional and non-functional requirements_Template V2.1</t>
   </si>
   <si>
-    <t>Template Release Date: 14 April, 2025</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">© World Health Organization 2025
 Some rights reserved. 
@@ -1350,8 +1347,13 @@
       </rPr>
       <t xml:space="preserve">
 All reasonable precautions have been taken by WHO to verify the information contained in this publication. However, the published material is being distributed without warranty of any kind, either expressed or implied. The responsibility for the interpretation and use of the material lies with the reader. In no event shall WHO be liable for damages arising from its use.
+The designations employed and the presentation of the material in this publication do not imply the expression of any opinion whatsoever on the part of WHO concerning the legal status of any country, territory, city or area or of its authorities, or concerning the delimitation of its frontiers or boundaries. Dotted and dashed lines on maps represent approximate border lines for which there may not yet be full agreement.
+The mention of specific companies or of certain manufacturers' products does not imply that they are endorsed or recommended by WHO in preference to others of a similar nature that are not mentioned. Errors and omissions excepted, the names of proprietary products are distinguished by initial capital letters.
 Any dispute arising from or relating to this license, including its validity, interpretation, or application, shall, unless amicably settled, be subject to conciliation. In the event the dispute is not resolved by conciliation within thirty (30) days, the dispute shall be settled by arbitration. The arbitration shall be conducted in accordance with the modalities to be agreed upon by the parties or, in the absence of agreement within thirty (30) days of written communication of the intent to commence arbitration, with the UNCITRAL Arbitration Rules. The parties shall accept the arbitral award as final.</t>
     </r>
+  </si>
+  <si>
+    <t>Template Release Date: May 09, 2025</t>
   </si>
 </sst>
 </file>
@@ -1918,18 +1920,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1956,6 +1946,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2296,8 +2298,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2311,22 +2313,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="29" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8"/>
@@ -2337,25 +2339,25 @@
     </row>
     <row r="4" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="37"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:5" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
@@ -2363,10 +2365,10 @@
       <c r="C6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
@@ -2374,10 +2376,10 @@
       <c r="C7" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5" ht="17.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
@@ -2385,10 +2387,10 @@
       <c r="C8" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
@@ -2396,10 +2398,10 @@
       <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
@@ -2407,10 +2409,10 @@
       <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
@@ -2418,21 +2420,21 @@
       <c r="C11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:5" ht="48.65" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5" ht="65.150000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
@@ -2440,10 +2442,10 @@
       <c r="C13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
@@ -2451,10 +2453,10 @@
       <c r="C14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
@@ -2462,10 +2464,10 @@
       <c r="C15" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -2473,14 +2475,14 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="206" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="279" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
@@ -2489,13 +2491,11 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -2512,6 +2512,8 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14549,11 +14551,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
@@ -15344,15 +15346,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006553529D1FC6824CBA83EEDA5E51662C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fd9d8df0be95803e7319e4e8fd6e517">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4" xmlns:ns3="db15119c-9bb3-4b2d-aba7-a20f2bdcd107" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e496dec2d1664ef4f95c2258d1ac145" ns2:_="" ns3:_="">
     <xsd:import namespace="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4"/>
@@ -15607,7 +15600,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ce1eb032-f7c0-42b6-914e-65a5c98ce8c4">
@@ -15618,15 +15611,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D04AF83-9887-434B-B83F-8F76777F869C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60998F22-CC4D-424A-9F3A-449AE0FF1A0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15645,7 +15639,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F509E6-2A43-467D-9C8B-DFDA1B706516}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -15662,4 +15656,12 @@
     <ds:schemaRef ds:uri="db15119c-9bb3-4b2d-aba7-a20f2bdcd107"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D04AF83-9887-434B-B83F-8F76777F869C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>